--- a/backend/src/excel_handler/files/DYCA.xlsx
+++ b/backend/src/excel_handler/files/DYCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9215.51</v>
+        <v>25765.79</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9215.51</v>
+        <v>6441.45</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9215.51</v>
+        <v>9818.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6273.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9673.23</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DYCA.xlsx
+++ b/backend/src/excel_handler/files/DYCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,68 +436,91 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25765.79</v>
+        <v>9579.030000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8689.469999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6441.45</v>
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9818.57</v>
+        <v>5580.8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5631.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6273.99</v>
+        <v>9917.030000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9585.83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>6269.22</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5976.59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9673.23</v>
+        <v>25076.86</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23906.34</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DYCA.xlsx
+++ b/backend/src/excel_handler/files/DYCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,79 +443,61 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9579.030000000001</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8689.469999999999</v>
+        <v>23906.34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
+        <v>5976.59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5580.8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5631.04</v>
+        <v>8689.469999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9917.030000000001</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9585.83</v>
+        <v>5631.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6269.22</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5976.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25076.86</v>
-      </c>
-      <c r="C7" t="n">
-        <v>23906.34</v>
+        <v>9585.83</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DYCA.xlsx
+++ b/backend/src/excel_handler/files/DYCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,65 +439,84 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23906.34</v>
+        <v>8689.469999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9060.65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5976.59</v>
-      </c>
+        <v>5631.04</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8689.469999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5631.04</v>
+        <v>9585.83</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9497.780000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>5976.59</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9279.219999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9585.83</v>
+        <v>23906.34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18558.43</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DYCA.xlsx
+++ b/backend/src/excel_handler/files/DYCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>9060.65</v>
       </c>
+      <c r="D2" t="n">
+        <v>9644.52</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -468,6 +476,9 @@
         <v>5631.04</v>
       </c>
       <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>5772.28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -479,6 +490,9 @@
         <v>0</v>
       </c>
       <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -492,6 +506,9 @@
       <c r="C5" t="n">
         <v>9497.780000000001</v>
       </c>
+      <c r="D5" t="n">
+        <v>9539.559999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -505,6 +522,9 @@
       <c r="C6" t="n">
         <v>9279.219999999999</v>
       </c>
+      <c r="D6" t="n">
+        <v>6239.09</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -517,6 +537,9 @@
       </c>
       <c r="C7" t="n">
         <v>18558.43</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24956.36</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DYCA.xlsx
+++ b/backend/src/excel_handler/files/DYCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -464,6 +469,9 @@
       </c>
       <c r="D2" t="n">
         <v>9644.52</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10128.07</v>
       </c>
     </row>
     <row r="3">
@@ -479,6 +487,9 @@
       <c r="D3" t="n">
         <v>5772.28</v>
       </c>
+      <c r="E3" t="n">
+        <v>5833.83</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -493,6 +504,9 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -509,6 +523,7 @@
       <c r="D5" t="n">
         <v>9539.559999999999</v>
       </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -525,6 +540,9 @@
       <c r="D6" t="n">
         <v>6239.09</v>
       </c>
+      <c r="E6" t="n">
+        <v>5320.63</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -540,6 +558,9 @@
       </c>
       <c r="D7" t="n">
         <v>24956.36</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15961.9</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DYCA.xlsx
+++ b/backend/src/excel_handler/files/DYCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -472,6 +477,9 @@
       </c>
       <c r="E2" t="n">
         <v>10128.07</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9141.290000000001</v>
       </c>
     </row>
     <row r="3">
@@ -490,6 +498,9 @@
       <c r="E3" t="n">
         <v>5833.83</v>
       </c>
+      <c r="F3" t="n">
+        <v>6144.7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -507,6 +518,9 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -524,6 +538,7 @@
         <v>9539.559999999999</v>
       </c>
       <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -543,6 +558,9 @@
       <c r="E6" t="n">
         <v>5320.63</v>
       </c>
+      <c r="F6" t="n">
+        <v>5095.33</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -561,6 +579,9 @@
       </c>
       <c r="E7" t="n">
         <v>15961.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15285.99</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DYCA.xlsx
+++ b/backend/src/excel_handler/files/DYCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>9141.290000000001</v>
       </c>
+      <c r="G2" t="n">
+        <v>9606.25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -501,6 +509,9 @@
       <c r="F3" t="n">
         <v>6144.7</v>
       </c>
+      <c r="G3" t="n">
+        <v>5525.91</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -521,6 +532,9 @@
       <c r="F4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -539,6 +553,7 @@
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -561,6 +576,9 @@
       <c r="F6" t="n">
         <v>5095.33</v>
       </c>
+      <c r="G6" t="n">
+        <v>5044.05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -582,6 +600,9 @@
       </c>
       <c r="F7" t="n">
         <v>15285.99</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15132.16</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DYCA.xlsx
+++ b/backend/src/excel_handler/files/DYCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>9606.25</v>
       </c>
+      <c r="H2" t="n">
+        <v>9931.469999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -512,6 +520,9 @@
       <c r="G3" t="n">
         <v>5525.91</v>
       </c>
+      <c r="H3" t="n">
+        <v>5537.54</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -535,6 +546,9 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -554,6 +568,7 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -579,6 +594,9 @@
       <c r="G6" t="n">
         <v>5044.05</v>
       </c>
+      <c r="H6" t="n">
+        <v>5156.34</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -603,6 +621,9 @@
       </c>
       <c r="G7" t="n">
         <v>15132.16</v>
+      </c>
+      <c r="H7" t="n">
+        <v>15469.01</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DYCA.xlsx
+++ b/backend/src/excel_handler/files/DYCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>9931.469999999999</v>
       </c>
+      <c r="I2" t="n">
+        <v>9839.059999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -523,6 +531,9 @@
       <c r="H3" t="n">
         <v>5537.54</v>
       </c>
+      <c r="I3" t="n">
+        <v>5482.8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -547,6 +558,9 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -569,6 +583,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -597,6 +612,9 @@
       <c r="H6" t="n">
         <v>5156.34</v>
       </c>
+      <c r="I6" t="n">
+        <v>5107.29</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -624,6 +642,9 @@
       </c>
       <c r="H7" t="n">
         <v>15469.01</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15321.86</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DYCA.xlsx
+++ b/backend/src/excel_handler/files/DYCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>9839.059999999999</v>
       </c>
+      <c r="J2" t="n">
+        <v>9733.700000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -534,6 +542,9 @@
       <c r="I3" t="n">
         <v>5482.8</v>
       </c>
+      <c r="J3" t="n">
+        <v>5693.73</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -561,6 +572,9 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -584,6 +598,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -615,6 +630,9 @@
       <c r="I6" t="n">
         <v>5107.29</v>
       </c>
+      <c r="J6" t="n">
+        <v>5142.48</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -645,6 +663,9 @@
       </c>
       <c r="I7" t="n">
         <v>15321.86</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15427.43</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DYCA.xlsx
+++ b/backend/src/excel_handler/files/DYCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>9733.700000000001</v>
       </c>
+      <c r="K2" t="n">
+        <v>9164.969999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -545,6 +553,9 @@
       <c r="J3" t="n">
         <v>5693.73</v>
       </c>
+      <c r="K3" t="n">
+        <v>6282.56</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -575,6 +586,9 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -599,6 +613,7 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -633,6 +648,9 @@
       <c r="J6" t="n">
         <v>5142.48</v>
       </c>
+      <c r="K6" t="n">
+        <v>5149.18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -666,6 +684,9 @@
       </c>
       <c r="J7" t="n">
         <v>15427.43</v>
+      </c>
+      <c r="K7" t="n">
+        <v>15447.53</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DYCA.xlsx
+++ b/backend/src/excel_handler/files/DYCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>9164.969999999999</v>
       </c>
+      <c r="L2" t="n">
+        <v>8805.42</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -556,6 +564,9 @@
       <c r="K3" t="n">
         <v>6282.56</v>
       </c>
+      <c r="L3" t="n">
+        <v>6191.57</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -589,6 +600,9 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -614,6 +628,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -651,6 +666,9 @@
       <c r="K6" t="n">
         <v>5149.18</v>
       </c>
+      <c r="L6" t="n">
+        <v>4999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -687,6 +705,9 @@
       </c>
       <c r="K7" t="n">
         <v>15447.53</v>
+      </c>
+      <c r="L7" t="n">
+        <v>14996.99</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DYCA.xlsx
+++ b/backend/src/excel_handler/files/DYCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>8805.42</v>
       </c>
+      <c r="M2" t="n">
+        <v>8466.549999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -567,6 +575,9 @@
       <c r="L3" t="n">
         <v>6191.57</v>
       </c>
+      <c r="M3" t="n">
+        <v>5919.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -603,6 +614,9 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -629,6 +643,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -669,6 +684,9 @@
       <c r="L6" t="n">
         <v>4999</v>
       </c>
+      <c r="M6" t="n">
+        <v>4795.35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -708,6 +726,9 @@
       </c>
       <c r="L7" t="n">
         <v>14996.99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>14386.05</v>
       </c>
     </row>
   </sheetData>
